--- a/spring-mvc-java/persons.xlsx
+++ b/spring-mvc-java/persons.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -60,13 +63,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
+      <color rgb="FF002060"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -76,6 +79,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -95,13 +104,41 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
